--- a/Annotations/New/StormFront.xlsx
+++ b/Annotations/New/StormFront.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17832" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17832"/>
   </bookViews>
   <sheets>
     <sheet name="StormFrontV2" sheetId="1" r:id="rId1"/>
@@ -1551,14 +1551,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P211"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="37.5546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="37.5546875" style="2" customWidth="1"/>
@@ -1620,7 +1621,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.87328977198052737</v>
+        <v>0.37484735700960814</v>
       </c>
       <c r="B2" s="2">
         <v>101</v>
@@ -1644,7 +1645,7 @@
     <row r="3" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85308411134856799</v>
+        <v>0.35170179922003364</v>
       </c>
       <c r="B3" s="2">
         <v>76</v>
@@ -1668,7 +1669,7 @@
     <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95282861316120349</v>
+        <v>0.88988937396373324</v>
       </c>
       <c r="B4" s="2">
         <v>21</v>
@@ -1689,7 +1690,7 @@
     <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34038157599855468</v>
+        <v>0.2537814383851128</v>
       </c>
       <c r="B5" s="2">
         <v>64</v>
@@ -1710,7 +1711,7 @@
     <row r="6" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96657631006794498</v>
+        <v>0.39260139509227765</v>
       </c>
       <c r="B6" s="2">
         <v>79</v>
@@ -1737,7 +1738,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53622683859412246</v>
+        <v>0.73733704166959002</v>
       </c>
       <c r="B7" s="2">
         <v>14</v>
@@ -1761,7 +1762,7 @@
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62748023481395587</v>
+        <v>0.53094303702676471</v>
       </c>
       <c r="B8" s="2">
         <v>52</v>
@@ -1785,7 +1786,7 @@
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97568715857047228</v>
+        <v>0.97298105118172895</v>
       </c>
       <c r="B9" s="2">
         <v>114</v>
@@ -1806,7 +1807,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93161675518140397</v>
+        <v>0.91383511074076218</v>
       </c>
       <c r="B10" s="2">
         <v>13</v>
@@ -1830,7 +1831,7 @@
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34192642507256088</v>
+        <v>0.77906434779022693</v>
       </c>
       <c r="B11" s="2">
         <v>68</v>
@@ -1851,7 +1852,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37801328182812732</v>
+        <v>0.8399894824046984</v>
       </c>
       <c r="B12" s="2">
         <v>28</v>
@@ -1875,7 +1876,7 @@
     <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83566437068312682</v>
+        <v>0.71595201480769988</v>
       </c>
       <c r="B13" s="2">
         <v>120</v>
@@ -1899,7 +1900,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4165957263011757</v>
+        <v>0.26533213434374914</v>
       </c>
       <c r="B14" s="2">
         <v>160</v>
@@ -1920,7 +1921,7 @@
     <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35220663788948947</v>
+        <v>0.69581680607818208</v>
       </c>
       <c r="B15" s="2">
         <v>147</v>
@@ -1947,7 +1948,7 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75750120684592792</v>
+        <v>0.93373456850620795</v>
       </c>
       <c r="B16" s="2">
         <v>112</v>
@@ -1968,7 +1969,7 @@
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0297423545129467E-2</v>
+        <v>0.59039592618864845</v>
       </c>
       <c r="B17" s="2">
         <v>186</v>
@@ -1989,7 +1990,7 @@
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44156387667432917</v>
+        <v>0.51825277592960894</v>
       </c>
       <c r="B18" s="2">
         <v>36</v>
@@ -2010,7 +2011,7 @@
     <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10106563784169376</v>
+        <v>0.19759418165343301</v>
       </c>
       <c r="B19" s="2">
         <v>49</v>
@@ -2034,7 +2035,7 @@
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19187001545714266</v>
+        <v>2.8433593620333708E-2</v>
       </c>
       <c r="B20" s="2">
         <v>138</v>
@@ -2058,7 +2059,7 @@
     <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12447682642017777</v>
+        <v>0.82422686233976161</v>
       </c>
       <c r="B21" s="2">
         <v>98</v>
@@ -2085,7 +2086,7 @@
     <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16959770959765286</v>
+        <v>0.65635785677896563</v>
       </c>
       <c r="B22" s="2">
         <v>61</v>
@@ -2106,7 +2107,7 @@
     <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8614016872326864</v>
+        <v>0.26924005611314561</v>
       </c>
       <c r="B23" s="2">
         <v>84</v>
@@ -2130,7 +2131,7 @@
     <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34014556265533835</v>
+        <v>0.83410947098330568</v>
       </c>
       <c r="B24" s="2">
         <v>73</v>
@@ -2154,7 +2155,7 @@
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91782620225425249</v>
+        <v>0.67135941306410141</v>
       </c>
       <c r="B25" s="2">
         <v>54</v>
@@ -2178,7 +2179,7 @@
     <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12970549537154463</v>
+        <v>0.11725994263594519</v>
       </c>
       <c r="B26" s="2">
         <v>146</v>
@@ -2199,7 +2200,7 @@
     <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95361942546169221</v>
+        <v>1.8094300155019116E-2</v>
       </c>
       <c r="B27" s="2">
         <v>96</v>
@@ -2223,7 +2224,7 @@
     <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1970785920722795E-2</v>
+        <v>0.4333479889953763</v>
       </c>
       <c r="B28" s="2">
         <v>136</v>
@@ -2247,7 +2248,7 @@
     <row r="29" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59057326577281666</v>
+        <v>6.1458486406841928E-2</v>
       </c>
       <c r="B29" s="2">
         <v>50</v>
@@ -2271,7 +2272,7 @@
     <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19568805854719939</v>
+        <v>5.7915168237603676E-2</v>
       </c>
       <c r="B30" s="2">
         <v>51</v>
@@ -2292,7 +2293,7 @@
     <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26567349422411712</v>
+        <v>0.61414126718760753</v>
       </c>
       <c r="B31" s="2">
         <v>202</v>
@@ -2316,7 +2317,7 @@
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98452613455598748</v>
+        <v>9.5504705452864269E-2</v>
       </c>
       <c r="B32" s="2">
         <v>67</v>
@@ -2337,7 +2338,7 @@
     <row r="33" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5049014717978313E-2</v>
+        <v>6.273029660951035E-2</v>
       </c>
       <c r="B33" s="2">
         <v>80</v>
@@ -2361,7 +2362,7 @@
     <row r="34" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19814516280065853</v>
+        <v>0.55650348168148844</v>
       </c>
       <c r="B34" s="2">
         <v>197</v>
@@ -2385,7 +2386,7 @@
     <row r="35" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2130367278371379</v>
+        <v>0.6864203494548593</v>
       </c>
       <c r="B35" s="2">
         <v>152</v>
@@ -2412,7 +2413,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5215237718789052</v>
+        <v>0.40778161662482615</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
@@ -2436,7 +2437,7 @@
     <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94826806805283381</v>
+        <v>0.67075322954654237</v>
       </c>
       <c r="B37" s="2">
         <v>108</v>
@@ -2460,7 +2461,7 @@
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61981612027582167</v>
+        <v>0.74864690532193612</v>
       </c>
       <c r="B38" s="2">
         <v>166</v>
@@ -2484,7 +2485,7 @@
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76455823910217047</v>
+        <v>0.85146549280682193</v>
       </c>
       <c r="B39" s="2">
         <v>43</v>
@@ -2508,7 +2509,7 @@
     <row r="40" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51160566956576681</v>
+        <v>0.33138103791664963</v>
       </c>
       <c r="B40" s="2">
         <v>143</v>
@@ -2535,7 +2536,7 @@
     <row r="41" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20268811478635229</v>
+        <v>5.5737006649232534E-2</v>
       </c>
       <c r="B41" s="2">
         <v>91</v>
@@ -2559,7 +2560,7 @@
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3386647666227942E-2</v>
+        <v>0.29927321057494505</v>
       </c>
       <c r="B42" s="2">
         <v>37</v>
@@ -2586,7 +2587,7 @@
     <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53270343417389743</v>
+        <v>0.19806575703658391</v>
       </c>
       <c r="B43" s="2">
         <v>132</v>
@@ -2607,7 +2608,7 @@
     <row r="44" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10395592356113914</v>
+        <v>8.319747026618951E-2</v>
       </c>
       <c r="B44" s="2">
         <v>78</v>
@@ -2628,7 +2629,7 @@
     <row r="45" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41002553067755543</v>
+        <v>0.18753266070691421</v>
       </c>
       <c r="B45" s="2">
         <v>70</v>
@@ -2649,7 +2650,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98938678212149966</v>
+        <v>0.51710988335484398</v>
       </c>
       <c r="B46" s="2">
         <v>26</v>
@@ -2670,7 +2671,7 @@
     <row r="47" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3808234828786089</v>
+        <v>0.27953944566289979</v>
       </c>
       <c r="B47" s="2">
         <v>144</v>
@@ -2697,7 +2698,7 @@
     <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7505826842302348E-2</v>
+        <v>0.12084055670939009</v>
       </c>
       <c r="B48" s="2">
         <v>187</v>
@@ -2721,7 +2722,7 @@
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5906596461234157E-2</v>
+        <v>3.1977700473498905E-2</v>
       </c>
       <c r="B49" s="2">
         <v>42</v>
@@ -2748,7 +2749,7 @@
     <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94840604818303498</v>
+        <v>0.99024989120156726</v>
       </c>
       <c r="B50" s="2">
         <v>210</v>
@@ -2772,7 +2773,7 @@
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61388606245158817</v>
+        <v>0.77466662572224187</v>
       </c>
       <c r="B51" s="2">
         <v>111</v>
@@ -2796,7 +2797,7 @@
     <row r="52" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98567253398767918</v>
+        <v>0.76564148703199186</v>
       </c>
       <c r="B52" s="2">
         <v>56</v>
@@ -2820,7 +2821,7 @@
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8426637517282138E-2</v>
+        <v>0.89863512666412004</v>
       </c>
       <c r="B53" s="2">
         <v>135</v>
@@ -2844,7 +2845,7 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74946698937760647</v>
+        <v>0.9748822716842912</v>
       </c>
       <c r="B54" s="2">
         <v>29</v>
@@ -2868,7 +2869,7 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91181705600855811</v>
+        <v>0.86605527952313899</v>
       </c>
       <c r="B55" s="2">
         <v>182</v>
@@ -2892,7 +2893,7 @@
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64724421957858047</v>
+        <v>0.78797650088570359</v>
       </c>
       <c r="B56" s="2">
         <v>110</v>
@@ -2916,7 +2917,7 @@
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83616615636563674</v>
+        <v>1.5668079403046709E-2</v>
       </c>
       <c r="B57" s="2">
         <v>23</v>
@@ -2940,7 +2941,7 @@
     <row r="58" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26184722595579579</v>
+        <v>9.4356755763044253E-3</v>
       </c>
       <c r="B58" s="2">
         <v>116</v>
@@ -2967,7 +2968,7 @@
     <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84490487424292438</v>
+        <v>0.81848774204624908</v>
       </c>
       <c r="B59" s="2">
         <v>127</v>
@@ -2994,7 +2995,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66303431683546743</v>
+        <v>0.4664276634957838</v>
       </c>
       <c r="B60" s="2">
         <v>195</v>
@@ -3018,7 +3019,7 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77128334637030072</v>
+        <v>0.95132849351157245</v>
       </c>
       <c r="B61" s="2">
         <v>34</v>
@@ -3039,7 +3040,7 @@
     <row r="62" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4910286092444669</v>
+        <v>0.53371533070238997</v>
       </c>
       <c r="B62" s="2">
         <v>191</v>
@@ -3060,7 +3061,7 @@
     <row r="63" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70023140231653924</v>
+        <v>0.18980568368201078</v>
       </c>
       <c r="B63" s="2">
         <v>87</v>
@@ -3084,7 +3085,7 @@
     <row r="64" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24331613749353176</v>
+        <v>0.74488237476692931</v>
       </c>
       <c r="B64" s="2">
         <v>199</v>
@@ -3108,7 +3109,7 @@
     <row r="65" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54400915781877501</v>
+        <v>0.94822790661282552</v>
       </c>
       <c r="B65" s="2">
         <v>106</v>
@@ -3132,7 +3133,7 @@
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.55037182707834453</v>
+        <v>0.31890137368172355</v>
       </c>
       <c r="B66" s="2">
         <v>161</v>
@@ -3159,7 +3160,7 @@
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32415832004678302</v>
+        <v>0.92027938100196716</v>
       </c>
       <c r="B67" s="2">
         <v>208</v>
@@ -3180,7 +3181,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10688763446306637</v>
+        <v>0.15147151196402842</v>
       </c>
       <c r="B68" s="2">
         <v>175</v>
@@ -3201,7 +3202,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90884424289099064</v>
+        <v>0.54327003359065618</v>
       </c>
       <c r="B69" s="2">
         <v>27</v>
@@ -3228,7 +3229,7 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33439815859603073</v>
+        <v>0.94784024055803606</v>
       </c>
       <c r="B70" s="2">
         <v>100</v>
@@ -3252,7 +3253,7 @@
     <row r="71" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59958207884902237</v>
+        <v>0.31721576820331576</v>
       </c>
       <c r="B71" s="2">
         <v>94</v>
@@ -3276,7 +3277,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75468369968700533</v>
+        <v>0.96987484571508198</v>
       </c>
       <c r="B72" s="2">
         <v>40</v>
@@ -3297,7 +3298,7 @@
     <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76767506229272731</v>
+        <v>0.84273867526289581</v>
       </c>
       <c r="B73" s="2">
         <v>141</v>
@@ -3321,7 +3322,7 @@
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7320093164044793</v>
+        <v>0.80885715728142504</v>
       </c>
       <c r="B74" s="2">
         <v>124</v>
@@ -3345,7 +3346,7 @@
     <row r="75" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65802251643727572</v>
+        <v>0.85793548296178546</v>
       </c>
       <c r="B75" s="2">
         <v>93</v>
@@ -3372,7 +3373,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9358936339673174</v>
+        <v>0.79481122115971203</v>
       </c>
       <c r="B76" s="2">
         <v>32</v>
@@ -3393,7 +3394,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32261002128689109</v>
+        <v>0.37992464901632561</v>
       </c>
       <c r="B77" s="2">
         <v>168</v>
@@ -3417,7 +3418,7 @@
     <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77638571944927437</v>
+        <v>0.17307828164789874</v>
       </c>
       <c r="B78" s="2">
         <v>103</v>
@@ -3441,7 +3442,7 @@
     <row r="79" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67888037057031025</v>
+        <v>0.68872913668214775</v>
       </c>
       <c r="B79" s="2">
         <v>156</v>
@@ -3462,7 +3463,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78020947237564531</v>
+        <v>0.49661119761981709</v>
       </c>
       <c r="B80" s="2">
         <v>181</v>
@@ -3483,7 +3484,7 @@
     <row r="81" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65846430709602854</v>
+        <v>0.48186507378978016</v>
       </c>
       <c r="B81" s="2">
         <v>46</v>
@@ -3507,7 +3508,7 @@
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65325576969623489</v>
+        <v>0.90146825855357104</v>
       </c>
       <c r="B82" s="2">
         <v>102</v>
@@ -3534,7 +3535,7 @@
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62179917567624576</v>
+        <v>1.7447518387042171E-2</v>
       </c>
       <c r="B83" s="2">
         <v>2</v>
@@ -3558,7 +3559,7 @@
     <row r="84" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85143156382386542</v>
+        <v>1.9043775078744218E-2</v>
       </c>
       <c r="B84" s="2">
         <v>209</v>
@@ -3579,7 +3580,7 @@
     <row r="85" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18892325374630281</v>
+        <v>0.27637463932634831</v>
       </c>
       <c r="B85" s="2">
         <v>188</v>
@@ -3606,7 +3607,7 @@
     <row r="86" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56362507520476735</v>
+        <v>7.5337207875708745E-2</v>
       </c>
       <c r="B86" s="2">
         <v>97</v>
@@ -3627,7 +3628,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22403386760503718</v>
+        <v>7.9185671921530698E-2</v>
       </c>
       <c r="B87" s="2">
         <v>167</v>
@@ -3648,7 +3649,7 @@
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.944780665699399</v>
+        <v>0.22850929438950784</v>
       </c>
       <c r="B88" s="2">
         <v>178</v>
@@ -3672,7 +3673,7 @@
     <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2385599278203818E-2</v>
+        <v>0.88305059529683627</v>
       </c>
       <c r="B89" s="2">
         <v>118</v>
@@ -3699,7 +3700,7 @@
     <row r="90" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58890263118736008</v>
+        <v>0.55994269425228105</v>
       </c>
       <c r="B90" s="2">
         <v>12</v>
@@ -3723,7 +3724,7 @@
     <row r="91" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86522476674485349</v>
+        <v>0.24250713132379409</v>
       </c>
       <c r="B91" s="2">
         <v>205</v>
@@ -3744,7 +3745,7 @@
     <row r="92" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5577765028257433E-2</v>
+        <v>0.28193437662431342</v>
       </c>
       <c r="B92" s="2">
         <v>173</v>
@@ -3768,7 +3769,7 @@
     <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66090842518896009</v>
+        <v>0.63314517324288022</v>
       </c>
       <c r="B93" s="2">
         <v>3</v>
@@ -3789,7 +3790,7 @@
     <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9391557683105044</v>
+        <v>0.41339307499072164</v>
       </c>
       <c r="B94" s="2">
         <v>159</v>
@@ -3810,7 +3811,7 @@
     <row r="95" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48648728808140096</v>
+        <v>0.83503298934939096</v>
       </c>
       <c r="B95" s="2">
         <v>77</v>
@@ -3834,7 +3835,7 @@
     <row r="96" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13959363388373147</v>
+        <v>0.46376934217760224</v>
       </c>
       <c r="B96" s="2">
         <v>71</v>
@@ -3855,7 +3856,7 @@
     <row r="97" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2049616861056776E-2</v>
+        <v>0.49267289850990414</v>
       </c>
       <c r="B97" s="2">
         <v>122</v>
@@ -3876,7 +3877,7 @@
     <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20882857350813155</v>
+        <v>0.67111700192281742</v>
       </c>
       <c r="B98" s="2">
         <v>148</v>
@@ -3897,7 +3898,7 @@
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83874173266712282</v>
+        <v>7.7705436948333428E-2</v>
       </c>
       <c r="B99" s="2">
         <v>8</v>
@@ -3921,7 +3922,7 @@
     <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88286534339683653</v>
+        <v>0.74999715859104232</v>
       </c>
       <c r="B100" s="2">
         <v>1</v>
@@ -3945,7 +3946,7 @@
     <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6959764089825726E-2</v>
+        <v>0.50458208903022772</v>
       </c>
       <c r="B101" s="2">
         <v>184</v>
@@ -3966,7 +3967,7 @@
     <row r="102" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98957852747154873</v>
+        <v>0.67649375086714791</v>
       </c>
       <c r="B102" s="2">
         <v>154</v>
@@ -3990,7 +3991,7 @@
     <row r="103" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77669506056910631</v>
+        <v>0.17147518000787387</v>
       </c>
       <c r="B103" s="2">
         <v>196</v>
@@ -4011,7 +4012,7 @@
     <row r="104" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10962572219083144</v>
+        <v>0.63085144350742417</v>
       </c>
       <c r="B104" s="2">
         <v>157</v>
@@ -4035,7 +4036,7 @@
     <row r="105" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38508919819820775</v>
+        <v>1.8977805086899613E-2</v>
       </c>
       <c r="B105" s="2">
         <v>192</v>
@@ -4062,7 +4063,7 @@
     <row r="106" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25311122548809051</v>
+        <v>0.51895830163330348</v>
       </c>
       <c r="B106" s="2">
         <v>139</v>
@@ -4086,7 +4087,7 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89104491008413567</v>
+        <v>0.39480091120197247</v>
       </c>
       <c r="B107" s="2">
         <v>113</v>
@@ -4110,7 +4111,7 @@
     <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62057140012997236</v>
+        <v>0.65433709886668145</v>
       </c>
       <c r="B108" s="2">
         <v>137</v>
@@ -4134,7 +4135,7 @@
     <row r="109" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39865112118947799</v>
+        <v>0.25077877470392362</v>
       </c>
       <c r="B109" s="2">
         <v>74</v>
@@ -4155,7 +4156,7 @@
     <row r="110" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21925564912500073</v>
+        <v>0.88459753003878649</v>
       </c>
       <c r="B110" s="2">
         <v>121</v>
@@ -4176,7 +4177,7 @@
     <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89713839805325246</v>
+        <v>0.8370315121488302</v>
       </c>
       <c r="B111" s="2">
         <v>170</v>
@@ -4200,7 +4201,7 @@
     <row r="112" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32766227961486438</v>
+        <v>0.76819441690255019</v>
       </c>
       <c r="B112" s="2">
         <v>92</v>
@@ -4221,7 +4222,7 @@
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97098775072948484</v>
+        <v>0.94751576065726895</v>
       </c>
       <c r="B113" s="2">
         <v>58</v>
@@ -4242,7 +4243,7 @@
     <row r="114" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19258042701735489</v>
+        <v>0.36276322676931039</v>
       </c>
       <c r="B114" s="2">
         <v>20</v>
@@ -4269,7 +4270,7 @@
     <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11919775661867671</v>
+        <v>4.0148843133481327E-2</v>
       </c>
       <c r="B115" s="2">
         <v>131</v>
@@ -4290,7 +4291,7 @@
     <row r="116" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60841949623411873</v>
+        <v>0.72237465063568662</v>
       </c>
       <c r="B116" s="2">
         <v>86</v>
@@ -4314,7 +4315,7 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88601982000778123</v>
+        <v>0.1685026255668487</v>
       </c>
       <c r="B117" s="2">
         <v>183</v>
@@ -4338,7 +4339,7 @@
     <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54980197372416373</v>
+        <v>0.28555967041687524</v>
       </c>
       <c r="B118" s="2">
         <v>189</v>
@@ -4362,7 +4363,7 @@
     <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1389487109583789E-2</v>
+        <v>0.3843338575411539</v>
       </c>
       <c r="B119" s="2">
         <v>179</v>
@@ -4386,7 +4387,7 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16064411720232763</v>
+        <v>0.76724780157563544</v>
       </c>
       <c r="B120" s="2">
         <v>25</v>
@@ -4407,7 +4408,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49439925254903994</v>
+        <v>0.78670046657841786</v>
       </c>
       <c r="B121" s="2">
         <v>16</v>
@@ -4431,7 +4432,7 @@
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11033786205315399</v>
+        <v>0.66435038057433071</v>
       </c>
       <c r="B122" s="2">
         <v>5</v>
@@ -4455,7 +4456,7 @@
     <row r="123" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39586410067281097</v>
+        <v>0.74777228756070335</v>
       </c>
       <c r="B123" s="2">
         <v>158</v>
@@ -4482,7 +4483,7 @@
     <row r="124" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24188859340627655</v>
+        <v>0.87739883070721525</v>
       </c>
       <c r="B124" s="2">
         <v>200</v>
@@ -4503,7 +4504,7 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12770649046989435</v>
+        <v>0.96722760032176613</v>
       </c>
       <c r="B125" s="2">
         <v>176</v>
@@ -4527,7 +4528,7 @@
     <row r="126" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21611474618856819</v>
+        <v>0.18594093734109629</v>
       </c>
       <c r="B126" s="2">
         <v>171</v>
@@ -4551,7 +4552,7 @@
     <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99366526652632559</v>
+        <v>0.7796448992803624</v>
       </c>
       <c r="B127" s="2">
         <v>115</v>
@@ -4572,7 +4573,7 @@
     <row r="128" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2095455152429766E-2</v>
+        <v>0.93353788349419586</v>
       </c>
       <c r="B128" s="2">
         <v>90</v>
@@ -4593,7 +4594,7 @@
     <row r="129" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73838502093802838</v>
+        <v>0.39151833472378028</v>
       </c>
       <c r="B129" s="2">
         <v>190</v>
@@ -4617,7 +4618,7 @@
     <row r="130" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.20454172221327482</v>
+        <v>0.77851018319182519</v>
       </c>
       <c r="B130" s="2">
         <v>145</v>
@@ -4641,7 +4642,7 @@
     <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14935000716151092</v>
+        <v>0.3757771142576245</v>
       </c>
       <c r="B131" s="2">
         <v>41</v>
@@ -4662,7 +4663,7 @@
     <row r="132" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19819294736150772</v>
+        <v>0.42676012875118607</v>
       </c>
       <c r="B132" s="2">
         <v>95</v>
@@ -4686,7 +4687,7 @@
     <row r="133" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19998515933530858</v>
+        <v>0.7149753989526485</v>
       </c>
       <c r="B133" s="2">
         <v>45</v>
@@ -4713,7 +4714,7 @@
     <row r="134" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32815949869940142</v>
+        <v>0.73692018422187289</v>
       </c>
       <c r="B134" s="2">
         <v>22</v>
@@ -4737,7 +4738,7 @@
     <row r="135" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.55121846795145E-2</v>
+        <v>0.88304364728039741</v>
       </c>
       <c r="B135" s="2">
         <v>151</v>
@@ -4761,7 +4762,7 @@
     <row r="136" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17613990725569229</v>
+        <v>0.73631364831646928</v>
       </c>
       <c r="B136" s="2">
         <v>172</v>
@@ -4788,7 +4789,7 @@
     <row r="137" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60620514528717151</v>
+        <v>0.44049107026359791</v>
       </c>
       <c r="B137" s="2">
         <v>24</v>
@@ -4809,7 +4810,7 @@
     <row r="138" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59001100561921427</v>
+        <v>0.8521972880753339</v>
       </c>
       <c r="B138" s="2">
         <v>47</v>
@@ -4836,7 +4837,7 @@
     <row r="139" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85583140850900119</v>
+        <v>0.98321513892091306</v>
       </c>
       <c r="B139" s="2">
         <v>89</v>
@@ -4860,7 +4861,7 @@
     <row r="140" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9248473927849018</v>
+        <v>0.53056836181894829</v>
       </c>
       <c r="B140" s="2">
         <v>153</v>
@@ -4884,7 +4885,7 @@
     <row r="141" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2952096131658855E-2</v>
+        <v>0.95367078208359601</v>
       </c>
       <c r="B141" s="2">
         <v>107</v>
@@ -4908,7 +4909,7 @@
     <row r="142" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25061094045979471</v>
+        <v>0.58508566758420755</v>
       </c>
       <c r="B142" s="2">
         <v>33</v>
@@ -4932,7 +4933,7 @@
     <row r="143" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.997801060143514</v>
+        <v>6.433516938059114E-2</v>
       </c>
       <c r="B143" s="2">
         <v>169</v>
@@ -4956,7 +4957,7 @@
     <row r="144" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37743752391983287</v>
+        <v>0.9020768418702878</v>
       </c>
       <c r="B144" s="2">
         <v>198</v>
@@ -4986,7 +4987,7 @@
     <row r="145" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2597759553057456</v>
+        <v>0.91542965586893954</v>
       </c>
       <c r="B145" s="2">
         <v>18</v>
@@ -5007,7 +5008,7 @@
     <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24957515793917062</v>
+        <v>0.65016353510175606</v>
       </c>
       <c r="B146" s="2">
         <v>162</v>
@@ -5031,7 +5032,7 @@
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17558418061871006</v>
+        <v>0.66980328840864389</v>
       </c>
       <c r="B147" s="2">
         <v>7</v>
@@ -5055,7 +5056,7 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80931905442067642</v>
+        <v>0.78575341130573839</v>
       </c>
       <c r="B148" s="2">
         <v>180</v>
@@ -5079,7 +5080,7 @@
     <row r="149" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11564183442731413</v>
+        <v>0.89024427747696766</v>
       </c>
       <c r="B149" s="2">
         <v>10</v>
@@ -5103,7 +5104,7 @@
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6066056628652272E-2</v>
+        <v>2.2615424087436775E-2</v>
       </c>
       <c r="B150" s="2">
         <v>149</v>
@@ -5124,7 +5125,7 @@
     <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28236865255735899</v>
+        <v>0.65324312357244174</v>
       </c>
       <c r="B151" s="2">
         <v>125</v>
@@ -5151,7 +5152,7 @@
     <row r="152" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.479409003425507E-2</v>
+        <v>3.8886013602905778E-2</v>
       </c>
       <c r="B152" s="2">
         <v>119</v>
@@ -5175,7 +5176,7 @@
     <row r="153" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6006349627039858E-2</v>
+        <v>0.82411933199708232</v>
       </c>
       <c r="B153" s="2">
         <v>201</v>
@@ -5199,7 +5200,7 @@
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46871624801467615</v>
+        <v>0.39495890044429172</v>
       </c>
       <c r="B154" s="2">
         <v>203</v>
@@ -5223,7 +5224,7 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71709276745005979</v>
+        <v>0.37100096280786155</v>
       </c>
       <c r="B155" s="2">
         <v>150</v>
@@ -5247,7 +5248,7 @@
     <row r="156" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3859884686557099</v>
+        <v>0.13088009801244049</v>
       </c>
       <c r="B156" s="2">
         <v>82</v>
@@ -5268,7 +5269,7 @@
     <row r="157" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10735957718382561</v>
+        <v>0.90121227428884554</v>
       </c>
       <c r="B157" s="2">
         <v>128</v>
@@ -5295,7 +5296,7 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29378453840905561</v>
+        <v>0.39449894983141165</v>
       </c>
       <c r="B158" s="2">
         <v>60</v>
@@ -5316,7 +5317,7 @@
     <row r="159" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36486056234362807</v>
+        <v>0.92556426142626469</v>
       </c>
       <c r="B159" s="2">
         <v>62</v>
@@ -5340,7 +5341,7 @@
     <row r="160" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31315548402166982</v>
+        <v>0.4426457277030732</v>
       </c>
       <c r="B160" s="2">
         <v>129</v>
@@ -5367,7 +5368,7 @@
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55383606419500342</v>
+        <v>0.68623624022552765</v>
       </c>
       <c r="B161" s="2">
         <v>38</v>
@@ -5388,7 +5389,7 @@
     <row r="162" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9875542352404364</v>
+        <v>0.36580577391668889</v>
       </c>
       <c r="B162" s="2">
         <v>81</v>
@@ -5415,7 +5416,7 @@
     <row r="163" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59064355657879275</v>
+        <v>0.88070680630284393</v>
       </c>
       <c r="B163" s="2">
         <v>88</v>
@@ -5436,7 +5437,7 @@
     <row r="164" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17786091448505259</v>
+        <v>0.47772178965631762</v>
       </c>
       <c r="B164" s="2">
         <v>185</v>
@@ -5460,7 +5461,7 @@
     <row r="165" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37989890756258671</v>
+        <v>0.29244523354463159</v>
       </c>
       <c r="B165" s="2">
         <v>193</v>
@@ -5487,7 +5488,7 @@
     <row r="166" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38354003754164989</v>
+        <v>0.68529843689162939</v>
       </c>
       <c r="B166" s="2">
         <v>130</v>
@@ -5511,7 +5512,7 @@
     <row r="167" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75983713177934253</v>
+        <v>0.16875671479263799</v>
       </c>
       <c r="B167" s="2">
         <v>163</v>
@@ -5538,7 +5539,7 @@
     <row r="168" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97672192863051499</v>
+        <v>0.18362212932310062</v>
       </c>
       <c r="B168" s="2">
         <v>4</v>
@@ -5565,7 +5566,7 @@
     <row r="169" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96960345813155047</v>
+        <v>0.48376582985649585</v>
       </c>
       <c r="B169" s="2">
         <v>66</v>
@@ -5586,7 +5587,7 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.7767230451712974E-3</v>
+        <v>0.52953867912801489</v>
       </c>
       <c r="B170" s="2">
         <v>31</v>
@@ -5610,7 +5611,7 @@
     <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32735775845779569</v>
+        <v>0.80215098720332934</v>
       </c>
       <c r="B171" s="2">
         <v>15</v>
@@ -5634,7 +5635,7 @@
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26481407464148765</v>
+        <v>0.99494391197510568</v>
       </c>
       <c r="B172" s="2">
         <v>39</v>
@@ -5655,7 +5656,7 @@
     <row r="173" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93540375978001256</v>
+        <v>0.75163879997767902</v>
       </c>
       <c r="B173" s="2">
         <v>206</v>
@@ -5679,7 +5680,7 @@
     <row r="174" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66247523672313602</v>
+        <v>0.97226588020935945</v>
       </c>
       <c r="B174" s="2">
         <v>65</v>
@@ -5700,7 +5701,7 @@
     <row r="175" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8956888950485703</v>
+        <v>0.12261642149531093</v>
       </c>
       <c r="B175" s="2">
         <v>69</v>
@@ -5721,7 +5722,7 @@
     <row r="176" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88629828711913128</v>
+        <v>0.65022256171043291</v>
       </c>
       <c r="B176" s="2">
         <v>123</v>
@@ -5742,7 +5743,7 @@
     <row r="177" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39665096536714151</v>
+        <v>0.37133068450110762</v>
       </c>
       <c r="B177" s="2">
         <v>207</v>
@@ -5766,7 +5767,7 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66347504346616148</v>
+        <v>0.42674952930668986</v>
       </c>
       <c r="B178" s="2">
         <v>174</v>
@@ -5790,7 +5791,7 @@
     <row r="179" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.490440646281928E-2</v>
+        <v>0.48890167381348537</v>
       </c>
       <c r="B179" s="2">
         <v>63</v>
@@ -5817,7 +5818,7 @@
     <row r="180" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44158117233503391</v>
+        <v>0.86549220328418752</v>
       </c>
       <c r="B180" s="2">
         <v>57</v>
@@ -5841,7 +5842,7 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77823601164326195</v>
+        <v>0.16091519265420418</v>
       </c>
       <c r="B181" s="2">
         <v>105</v>
@@ -5862,7 +5863,7 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49828200010054313</v>
+        <v>8.3118429490464552E-2</v>
       </c>
       <c r="B182" s="2">
         <v>59</v>
@@ -5883,7 +5884,7 @@
     <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82808443937524978</v>
+        <v>0.67475120692715773</v>
       </c>
       <c r="B183" s="2">
         <v>204</v>
@@ -5907,7 +5908,7 @@
     <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80564748006016396</v>
+        <v>1.3116170118772086E-2</v>
       </c>
       <c r="B184" s="2">
         <v>194</v>
@@ -5934,7 +5935,7 @@
     <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82157949889110216</v>
+        <v>0.5042424021663795</v>
       </c>
       <c r="B185" s="2">
         <v>177</v>
@@ -5958,7 +5959,7 @@
     <row r="186" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99478481778565053</v>
+        <v>0.18787541506393046</v>
       </c>
       <c r="B186" s="2">
         <v>83</v>
@@ -5982,7 +5983,7 @@
     <row r="187" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1250016268523639E-2</v>
+        <v>0.95567471665416426</v>
       </c>
       <c r="B187" s="2">
         <v>44</v>
@@ -6003,7 +6004,7 @@
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59388591380852551</v>
+        <v>0.58197586242736565</v>
       </c>
       <c r="B188" s="2">
         <v>30</v>
@@ -6027,7 +6028,7 @@
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83409278973396073</v>
+        <v>0.66218592541728249</v>
       </c>
       <c r="B189" s="2">
         <v>17</v>
@@ -6048,7 +6049,7 @@
     <row r="190" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1057742659330856E-2</v>
+        <v>0.6173615007675729</v>
       </c>
       <c r="B190" s="2">
         <v>142</v>
@@ -6075,7 +6076,7 @@
     <row r="191" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79224862396301821</v>
+        <v>0.96406399633835449</v>
       </c>
       <c r="B191" s="2">
         <v>155</v>
@@ -6096,7 +6097,7 @@
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50095132991719815</v>
+        <v>4.4205726102343079E-2</v>
       </c>
       <c r="B192" s="2">
         <v>6</v>
@@ -6120,7 +6121,7 @@
     <row r="193" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89872326704923333</v>
+        <v>0.57388954873859332</v>
       </c>
       <c r="B193" s="2">
         <v>48</v>
@@ -6147,7 +6148,7 @@
     <row r="194" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A211" ca="1" si="3">RAND()</f>
-        <v>0.92655997591057482</v>
+        <v>0.1398805037410833</v>
       </c>
       <c r="B194" s="2">
         <v>85</v>
@@ -6171,7 +6172,7 @@
     <row r="195" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.260860175390488</v>
+        <v>0.80787182837451132</v>
       </c>
       <c r="B195" s="2">
         <v>140</v>
@@ -6195,7 +6196,7 @@
     <row r="196" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40663548806961969</v>
+        <v>0.18649249121905886</v>
       </c>
       <c r="B196" s="2">
         <v>99</v>
@@ -6222,7 +6223,7 @@
     <row r="197" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49112881901410543</v>
+        <v>0.93311817008608189</v>
       </c>
       <c r="B197" s="2">
         <v>109</v>
@@ -6249,7 +6250,7 @@
     <row r="198" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10672507770384365</v>
+        <v>0.25726728396247045</v>
       </c>
       <c r="B198" s="2">
         <v>133</v>
@@ -6276,7 +6277,7 @@
     <row r="199" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81539425854969905</v>
+        <v>0.1403172898036642</v>
       </c>
       <c r="B199" s="2">
         <v>126</v>
@@ -6300,7 +6301,7 @@
     <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84068841064625222</v>
+        <v>0.16129742328113272</v>
       </c>
       <c r="B200" s="2">
         <v>164</v>
@@ -6321,7 +6322,7 @@
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69917080439372659</v>
+        <v>0.60669052131758072</v>
       </c>
       <c r="B201" s="2">
         <v>104</v>
@@ -6345,7 +6346,7 @@
     <row r="202" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39603586873510632</v>
+        <v>0.28583214525009581</v>
       </c>
       <c r="B202" s="2">
         <v>72</v>
@@ -6369,7 +6370,7 @@
     <row r="203" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97788757773889279</v>
+        <v>0.86592330421863029</v>
       </c>
       <c r="B203" s="2">
         <v>11</v>
@@ -6390,7 +6391,7 @@
     <row r="204" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65405749448801731</v>
+        <v>0.33367982464494372</v>
       </c>
       <c r="B204" s="2">
         <v>134</v>
@@ -6414,7 +6415,7 @@
     <row r="205" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43895627121092928</v>
+        <v>2.6644073818928526E-2</v>
       </c>
       <c r="B205" s="2">
         <v>117</v>
@@ -6438,7 +6439,7 @@
     <row r="206" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52522173936930838</v>
+        <v>0.55314554036457952</v>
       </c>
       <c r="B206" s="2">
         <v>53</v>
@@ -6462,7 +6463,7 @@
     <row r="207" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42511636377217754</v>
+        <v>0.74747035819201324</v>
       </c>
       <c r="B207" s="2">
         <v>75</v>
@@ -6483,7 +6484,7 @@
     <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70781804479012733</v>
+        <v>0.35843178487431682</v>
       </c>
       <c r="B208" s="2">
         <v>165</v>
@@ -6507,7 +6508,7 @@
     <row r="209" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93726295150829808</v>
+        <v>0.1861953454179367</v>
       </c>
       <c r="B209" s="2">
         <v>55</v>
@@ -6531,7 +6532,7 @@
     <row r="210" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70483449396445685</v>
+        <v>0.58740462903796054</v>
       </c>
       <c r="B210" s="2">
         <v>19</v>
@@ -6558,7 +6559,7 @@
     <row r="211" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85893868354464586</v>
+        <v>0.20011113131667524</v>
       </c>
       <c r="B211" s="2">
         <v>9</v>
@@ -6671,7 +6672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+    <sheetView topLeftCell="A197" workbookViewId="0">
       <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
